--- a/20170316-voter_turnout_rankings/builds/development/data/_raw/reportdata.xlsx
+++ b/20170316-voter_turnout_rankings/builds/development/data/_raw/reportdata.xlsx
@@ -1054,7 +1054,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1073,6 +1073,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
@@ -1154,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1165,6 +1169,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1172,6 +1178,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="15"/>
   </cellStyles>
@@ -3071,7 +3079,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3080,8 +3088,7 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="7"/>
-    <col min="7" max="7" width="10.83203125" style="7"/>
+    <col min="5" max="7" width="10.83203125" style="7"/>
     <col min="8" max="8" width="11.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3130,8 +3137,8 @@
       <c r="F2" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="7">
-        <v>0.59257072266401001</v>
+      <c r="G2">
+        <v>0.59</v>
       </c>
       <c r="H2" s="27">
         <v>0.27729999999999999</v>
@@ -3156,8 +3163,8 @@
       <c r="F3" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="7">
-        <v>0.6180085927907516</v>
+      <c r="G3">
+        <v>0.62</v>
       </c>
       <c r="H3" s="27">
         <v>0.14729999999999999</v>
@@ -3182,8 +3189,8 @@
       <c r="F4" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="7">
-        <v>0.56217176447327155</v>
+      <c r="G4">
+        <v>0.56000000000000005</v>
       </c>
       <c r="H4" s="27">
         <v>3.5000000000000003E-2</v>
@@ -3208,8 +3215,8 @@
       <c r="F5" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="7">
-        <v>0.53103119485349359</v>
+      <c r="G5">
+        <v>0.53</v>
       </c>
       <c r="H5" s="27">
         <v>0.26919999999999999</v>
@@ -3234,8 +3241,8 @@
       <c r="F6" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="7">
-        <v>0.58401370208765657</v>
+      <c r="G6">
+        <v>0.57999999999999996</v>
       </c>
       <c r="H6" s="27">
         <v>0.2999</v>
@@ -3260,8 +3267,8 @@
       <c r="F7" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="7">
-        <v>0.72087785093319212</v>
+      <c r="G7">
+        <v>0.72</v>
       </c>
       <c r="H7" s="27">
         <v>4.9099999999999998E-2</v>
@@ -3286,8 +3293,8 @@
       <c r="F8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="7">
-        <v>0.65426434159416103</v>
+      <c r="G8">
+        <v>0.65</v>
       </c>
       <c r="H8" s="27">
         <v>0.13639999999999999</v>
@@ -3312,8 +3319,8 @@
       <c r="F9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="7">
-        <v>0.64607764631257014</v>
+      <c r="G9">
+        <v>0.65</v>
       </c>
       <c r="H9" s="27">
         <v>0.1137</v>
@@ -3338,8 +3345,8 @@
       <c r="F10" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="7">
-        <v>0.61113918386895794</v>
+      <c r="G10">
+        <v>0.61</v>
       </c>
       <c r="H10" s="27">
         <v>0.86780000000000002</v>
@@ -3364,8 +3371,8 @@
       <c r="F11" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="7">
-        <v>0.65744930386406641</v>
+      <c r="G11">
+        <v>0.66</v>
       </c>
       <c r="H11" s="27">
         <v>1.1900000000000001E-2</v>
@@ -3390,8 +3397,8 @@
       <c r="F12" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="7">
-        <v>0.59887042612407781</v>
+      <c r="G12">
+        <v>0.6</v>
       </c>
       <c r="H12" s="27">
         <v>5.0999999999999997E-2</v>
@@ -3416,8 +3423,8 @@
       <c r="F13" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="7">
-        <v>0.43036032432352561</v>
+      <c r="G13">
+        <v>0.43</v>
       </c>
       <c r="H13" s="27">
         <v>0.32179999999999997</v>
@@ -3442,8 +3449,8 @@
       <c r="F14" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G14" s="7">
-        <v>0.60876042819177145</v>
+      <c r="G14">
+        <v>0.61</v>
       </c>
       <c r="H14" s="27">
         <v>0.31759999999999999</v>
@@ -3468,8 +3475,8 @@
       <c r="F15" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="G15" s="7">
-        <v>0.63357819174587837</v>
+      <c r="G15">
+        <v>0.63</v>
       </c>
       <c r="H15" s="27">
         <v>0.16900000000000001</v>
@@ -3494,8 +3501,8 @@
       <c r="F16" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="7">
-        <v>0.57858530510900108</v>
+      <c r="G16">
+        <v>0.57999999999999996</v>
       </c>
       <c r="H16" s="27">
         <v>0.19009999999999999</v>
@@ -3520,8 +3527,8 @@
       <c r="F17" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="7">
-        <v>0.69049014477346582</v>
+      <c r="G17">
+        <v>0.69</v>
       </c>
       <c r="H17" s="27">
         <v>9.4100000000000003E-2</v>
@@ -3546,8 +3553,8 @@
       <c r="F18" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="7">
-        <v>0.59737625380034842</v>
+      <c r="G18">
+        <v>0.6</v>
       </c>
       <c r="H18" s="27">
         <v>0.20419999999999999</v>
@@ -3572,8 +3579,8 @@
       <c r="F19" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="7">
-        <v>0.59670534011044341</v>
+      <c r="G19">
+        <v>0.6</v>
       </c>
       <c r="H19" s="27">
         <v>0.2984</v>
@@ -3598,8 +3605,8 @@
       <c r="F20" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="7">
-        <v>0.60619952267580268</v>
+      <c r="G20">
+        <v>0.61</v>
       </c>
       <c r="H20" s="27">
         <v>0.19639999999999999</v>
@@ -3624,8 +3631,8 @@
       <c r="F21" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="7">
-        <v>0.7275785330607385</v>
+      <c r="G21">
+        <v>0.73</v>
       </c>
       <c r="H21" s="27">
         <v>2.9600000000000001E-2</v>
@@ -3650,8 +3657,8 @@
       <c r="F22" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="G22" s="7">
-        <v>0.67217354272850294</v>
+      <c r="G22">
+        <v>0.67</v>
       </c>
       <c r="H22" s="27">
         <v>0.26419999999999999</v>
@@ -3676,8 +3683,8 @@
       <c r="F23" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="G23" s="7">
-        <v>0.68296678511657161</v>
+      <c r="G23">
+        <v>0.68</v>
       </c>
       <c r="H23" s="27">
         <v>0.27200000000000002</v>
@@ -3702,8 +3709,8 @@
       <c r="F24" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="7">
-        <v>0.65667065633592037</v>
+      <c r="G24">
+        <v>0.66</v>
       </c>
       <c r="H24" s="27">
         <v>2.2000000000000001E-3</v>
@@ -3728,8 +3735,8 @@
       <c r="F25" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="7">
-        <v>0.74840264137401502</v>
+      <c r="G25">
+        <v>0.75</v>
       </c>
       <c r="H25" s="27">
         <v>1.5100000000000001E-2</v>
@@ -3754,8 +3761,8 @@
       <c r="F26" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="7">
-        <v>0.5645821763822445</v>
+      <c r="G26">
+        <v>0.56999999999999995</v>
       </c>
       <c r="H26" s="27">
         <v>0.17799999999999999</v>
@@ -3780,8 +3787,8 @@
       <c r="F27" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G27" s="7">
-        <v>0.62315291483723856</v>
+      <c r="G27">
+        <v>0.62</v>
       </c>
       <c r="H27" s="27">
         <v>0.18509999999999999</v>
@@ -3806,8 +3813,8 @@
       <c r="F28" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="7">
-        <v>0.64260687521271953</v>
+      <c r="G28">
+        <v>0.64</v>
       </c>
       <c r="H28" s="27">
         <v>0.20230000000000001</v>
@@ -3832,8 +3839,8 @@
       <c r="F29" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="7">
-        <v>0.63750721950926126</v>
+      <c r="G29">
+        <v>0.64</v>
       </c>
       <c r="H29" s="27">
         <v>0.2505</v>
@@ -3858,8 +3865,8 @@
       <c r="F30" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="7">
-        <v>0.57300067096280616</v>
+      <c r="G30">
+        <v>0.56999999999999995</v>
       </c>
       <c r="H30" s="27">
         <v>2.4199999999999999E-2</v>
@@ -3884,8 +3891,8 @@
       <c r="F31" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="7">
-        <v>0.72531293954111331</v>
+      <c r="G31">
+        <v>0.73</v>
       </c>
       <c r="H31" s="27">
         <v>3.7000000000000002E-3</v>
@@ -3910,8 +3917,8 @@
       <c r="F32" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="7">
-        <v>0.65487991327908102</v>
+      <c r="G32">
+        <v>0.66</v>
       </c>
       <c r="H32" s="27">
         <v>0.13980000000000001</v>
@@ -3936,8 +3943,8 @@
       <c r="F33" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="7">
-        <v>0.55201860046559903</v>
+      <c r="G33">
+        <v>0.55000000000000004</v>
       </c>
       <c r="H33" s="27">
         <v>8.2100000000000006E-2</v>
@@ -3962,8 +3969,8 @@
       <c r="F34" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G34" s="7">
-        <v>0.57293338432610375</v>
+      <c r="G34">
+        <v>0.56999999999999995</v>
       </c>
       <c r="H34" s="27">
         <v>0.2248</v>
@@ -3988,8 +3995,8 @@
       <c r="F35" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="7">
-        <v>0.65172888784767491</v>
+      <c r="G35">
+        <v>0.65</v>
       </c>
       <c r="H35" s="27">
         <v>3.6600000000000001E-2</v>
@@ -4014,8 +4021,8 @@
       <c r="F36" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="7">
-        <v>0.61933819172507809</v>
+      <c r="G36">
+        <v>0.62</v>
       </c>
       <c r="H36" s="27">
         <v>0.35730000000000001</v>
@@ -4040,8 +4047,8 @@
       <c r="F37" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="7">
-        <v>0.64181410841971842</v>
+      <c r="G37">
+        <v>0.64</v>
       </c>
       <c r="H37" s="27">
         <v>8.0699999999999994E-2</v>
@@ -4066,8 +4073,8 @@
       <c r="F38" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="7">
-        <v>0.53217581900492172</v>
+      <c r="G38">
+        <v>0.53</v>
       </c>
       <c r="H38" s="27">
         <v>0.3639</v>
@@ -4092,8 +4099,8 @@
       <c r="F39" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="7">
-        <v>0.68259197934748339</v>
+      <c r="G39">
+        <v>0.68</v>
       </c>
       <c r="H39" s="27">
         <v>0.10979999999999999</v>
@@ -4118,8 +4125,8 @@
       <c r="F40" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="7">
-        <v>0.64043254894260004</v>
+      <c r="G40">
+        <v>0.64</v>
       </c>
       <c r="H40" s="27">
         <v>7.1999999999999998E-3</v>
@@ -4144,8 +4151,8 @@
       <c r="F41" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="G41" s="7">
-        <v>0.59741665616791506</v>
+      <c r="G41">
+        <v>0.6</v>
       </c>
       <c r="H41" s="27">
         <v>0.15509999999999999</v>
@@ -4170,8 +4177,8 @@
       <c r="F42" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G42" s="7">
-        <v>0.57289354519761904</v>
+      <c r="G42">
+        <v>0.56999999999999995</v>
       </c>
       <c r="H42" s="27">
         <v>0.14269999999999999</v>
@@ -4196,8 +4203,8 @@
       <c r="F43" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="7">
-        <v>0.59873874768967927</v>
+      <c r="G43">
+        <v>0.6</v>
       </c>
       <c r="H43" s="27">
         <v>0.2979</v>
@@ -4222,8 +4229,8 @@
       <c r="F44" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="7">
-        <v>0.52009705796096639</v>
+      <c r="G44">
+        <v>0.52</v>
       </c>
       <c r="H44" s="27">
         <v>0.2601</v>
@@ -4248,8 +4255,8 @@
       <c r="F45" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="7">
-        <v>0.51591441292299445</v>
+      <c r="G45">
+        <v>0.52</v>
       </c>
       <c r="H45" s="27">
         <v>0.09</v>
@@ -4274,8 +4281,8 @@
       <c r="F46" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="7">
-        <v>0.64756593456960221</v>
+      <c r="G46">
+        <v>0.57999999999999996</v>
       </c>
       <c r="H46" s="27">
         <v>0.1789</v>
@@ -4300,8 +4307,8 @@
       <c r="F47" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="7">
-        <v>0.67167893907230369</v>
+      <c r="G47">
+        <v>0.65</v>
       </c>
       <c r="H47" s="27">
         <v>0.2641</v>
@@ -4326,8 +4333,8 @@
       <c r="F48" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="7">
-        <v>0.65669334767294896</v>
+      <c r="G48">
+        <v>0.67</v>
       </c>
       <c r="H48" s="27">
         <v>5.3199999999999997E-2</v>
@@ -4352,8 +4359,8 @@
       <c r="F49" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="G49" s="7">
-        <v>0.50804976672401747</v>
+      <c r="G49">
+        <v>0.66</v>
       </c>
       <c r="H49" s="27">
         <v>0.15709999999999999</v>
@@ -4378,8 +4385,8 @@
       <c r="F50" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G50" s="7">
-        <v>0.70511719047065091</v>
+      <c r="G50">
+        <v>0.51</v>
       </c>
       <c r="H50" s="27">
         <v>0.4168</v>
@@ -4404,8 +4411,8 @@
       <c r="F51" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="7">
-        <v>0.60424494224767911</v>
+      <c r="G51">
+        <v>0.71</v>
       </c>
       <c r="H51" s="27">
         <v>7.6E-3</v>
@@ -4430,8 +4437,8 @@
       <c r="F52" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G52" s="7">
-        <v>0.60214389004196855</v>
+      <c r="G52">
+        <v>0.6</v>
       </c>
       <c r="H52" s="27">
         <v>0.46300000000000002</v>

--- a/20170316-voter_turnout_rankings/builds/development/data/_raw/reportdata.xlsx
+++ b/20170316-voter_turnout_rankings/builds/development/data/_raw/reportdata.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="1320" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="6860" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="nationalRanking" sheetId="1" r:id="rId1"/>
+    <sheet name="margins" sheetId="7" r:id="rId1"/>
     <sheet name="nationalTurnout" sheetId="2" r:id="rId2"/>
     <sheet name="sameday" sheetId="3" r:id="rId3"/>
     <sheet name="battlegrounds" sheetId="4" r:id="rId4"/>
     <sheet name="age" sheetId="5" r:id="rId5"/>
     <sheet name="sdr_states" sheetId="6" r:id="rId6"/>
-    <sheet name="margins" sheetId="7" r:id="rId7"/>
+    <sheet name="nationalRanking" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="276">
   <si>
     <t xml:space="preserve">Minnesota </t>
   </si>
@@ -844,6 +844,15 @@
   </si>
   <si>
     <t>margin_pct</t>
+  </si>
+  <si>
+    <t>sdr?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1063,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1078,8 +1087,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1139,16 +1150,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,8 +1162,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1171,6 +1179,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1180,6 +1189,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="15"/>
   </cellStyles>
@@ -1510,913 +1520,1533 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="11.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="16" thickBot="1">
+      <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+      <c r="H1" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="D2" s="4">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2945233</v>
+      </c>
+      <c r="D2" s="17">
+        <v>44593</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="26">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1">
+      <c r="A3" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="18">
+        <v>747927</v>
+      </c>
+      <c r="D3" s="18">
+        <v>22142</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3">
+        <v>0.73</v>
+      </c>
+      <c r="H3" s="26">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="18">
+        <v>744296</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2736</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4">
+        <v>0.73</v>
+      </c>
+      <c r="H4" s="26">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2780247</v>
+      </c>
+      <c r="D5" s="18">
+        <v>136386</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5">
+        <v>0.72</v>
+      </c>
+      <c r="H5" s="26">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2976150</v>
+      </c>
+      <c r="D6" s="18">
+        <v>22748</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>0.71</v>
+      </c>
+      <c r="H6" s="26">
+        <v>7.6E-3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" thickBot="1">
+      <c r="A7" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1566031</v>
+      </c>
+      <c r="D7" s="18">
+        <v>147314</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7">
+        <v>0.69</v>
+      </c>
+      <c r="H7" s="26">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1">
+      <c r="A8" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3325046</v>
+      </c>
+      <c r="D8" s="18">
+        <v>904303</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8">
+        <v>0.68</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1">
+      <c r="A9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2001336</v>
+      </c>
+      <c r="D9" s="18">
+        <v>219703</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9">
+        <v>0.68</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1">
+      <c r="A10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2781446</v>
+      </c>
+      <c r="D10" s="18">
+        <v>734759</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10">
+        <v>0.67</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" thickBot="1">
+      <c r="A11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3982752</v>
+      </c>
+      <c r="D11" s="18">
+        <v>212030</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11">
+        <v>0.67</v>
+      </c>
+      <c r="H11" s="26">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickBot="1">
+      <c r="A12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="20">
+        <v>9501617</v>
+      </c>
+      <c r="D12" s="18">
+        <v>112911</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12">
+        <v>0.66</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" thickBot="1">
+      <c r="A13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4824119</v>
+      </c>
+      <c r="D13" s="18">
+        <v>10704</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13">
+        <v>0.66</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1">
+      <c r="A14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3906723</v>
+      </c>
+      <c r="D14" s="18">
+        <v>546345</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14">
+        <v>0.66</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1">
+      <c r="A15" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20">
+        <v>3316996</v>
+      </c>
+      <c r="D15" s="18">
+        <v>520971</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15">
+        <v>0.66</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="I15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" thickBot="1">
+      <c r="A16" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1644920</v>
+      </c>
+      <c r="D16" s="18">
+        <v>224357</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16">
+        <v>0.65</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="I16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" thickBot="1">
+      <c r="A17" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4741564</v>
+      </c>
+      <c r="D17" s="18">
+        <v>173315</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17">
+        <v>0.65</v>
+      </c>
+      <c r="H17" s="26">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="A18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="20">
+        <v>443814</v>
+      </c>
+      <c r="D18" s="18">
+        <v>50476</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18">
+        <v>0.65</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0.1137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1">
+      <c r="A19" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="18">
+        <v>315067</v>
+      </c>
+      <c r="D19" s="18">
+        <v>83204</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19">
+        <v>0.65</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.2641</v>
+      </c>
+      <c r="I19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="A20" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="18">
+        <v>501822</v>
+      </c>
+      <c r="D20" s="18">
+        <v>101531</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20">
+        <v>0.64</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1">
+      <c r="A21" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="18">
+        <v>844227</v>
+      </c>
+      <c r="D21" s="18">
+        <v>211467</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21">
+        <v>0.64</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0.2505</v>
+      </c>
+      <c r="I21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1">
+      <c r="A22" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5536528</v>
+      </c>
+      <c r="D22" s="18">
+        <v>446841</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22">
+        <v>0.64</v>
+      </c>
+      <c r="H22" s="26">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1">
+      <c r="A23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6166698</v>
+      </c>
+      <c r="D23" s="18">
+        <v>44292</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23">
+        <v>0.64</v>
+      </c>
+      <c r="H23" s="26">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1">
+      <c r="A24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="20">
+        <v>5589767</v>
+      </c>
+      <c r="D24" s="18">
+        <v>944714</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24">
+        <v>0.63</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="13">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="D3" s="6">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D5" s="6">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D6" s="6">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="D8" s="6">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="D9" s="6">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="D10" s="6">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="D11" s="6">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1">
-      <c r="A13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.43</v>
-      </c>
-      <c r="D13" s="6">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="6">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D15" s="6">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D16" s="6">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.69</v>
-      </c>
-      <c r="D17" s="6">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="D18" s="6">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="D19" s="6">
-        <v>35</v>
-      </c>
-      <c r="E19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="D20" s="6">
-        <v>29</v>
-      </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="D22" s="6">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="13">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="13">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="D24" s="6">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" thickBot="1">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.748</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
+      <c r="C25" s="20">
+        <v>318608</v>
+      </c>
+      <c r="D25" s="18">
+        <v>46933</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25">
+        <v>0.62</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="I25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" thickBot="1">
+      <c r="A26" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43</v>
-      </c>
-      <c r="E26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" thickBot="1">
-      <c r="A27" s="5" t="s">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="C26" s="18">
+        <v>344360</v>
+      </c>
+      <c r="D26" s="18">
+        <v>123036</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26">
+        <v>0.62</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" thickBot="1">
+      <c r="A27" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="13">
-        <v>0.623</v>
-      </c>
-      <c r="D27" s="6">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" thickBot="1">
-      <c r="A28" s="5" t="s">
-        <v>4</v>
+      <c r="C27" s="18">
+        <v>2827673</v>
+      </c>
+      <c r="D27" s="18">
+        <v>523443</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27">
+        <v>0.62</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16" thickBot="1">
+      <c r="A28" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D28" s="6">
-        <v>19</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" thickBot="1">
-      <c r="A29" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="20">
+        <v>690433</v>
+      </c>
+      <c r="D28" s="18">
+        <v>219290</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28">
+        <v>0.61</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16" thickBot="1">
+      <c r="A29" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="D29" s="6">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1">
-      <c r="A30" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="20">
+        <v>311268</v>
+      </c>
+      <c r="D29" s="18">
+        <v>270107</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29">
+        <v>0.61</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" thickBot="1">
+      <c r="A30" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2029032</v>
+      </c>
+      <c r="D30" s="18">
+        <v>398484</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30">
+        <v>0.61</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1">
+      <c r="A31" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="20">
+        <v>4141445</v>
+      </c>
+      <c r="D31" s="18">
+        <v>211141</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31">
+        <v>0.6</v>
+      </c>
+      <c r="H31" s="26">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" thickBot="1">
+      <c r="A32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1194755</v>
+      </c>
+      <c r="D32" s="18">
+        <v>244013</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32">
+        <v>0.6</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16" thickBot="1">
+      <c r="A33" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1924149</v>
+      </c>
+      <c r="D33" s="18">
+        <v>574117</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.2984</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1">
+      <c r="A34" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="18">
+        <v>464144</v>
+      </c>
+      <c r="D34" s="18">
+        <v>71982</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34">
+        <v>0.6</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1">
+      <c r="A35" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="18">
+        <v>370093</v>
+      </c>
+      <c r="D35" s="18">
+        <v>110263</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35">
+        <v>0.6</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0.2979</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16" thickBot="1">
+      <c r="A36" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="20">
+        <v>255849</v>
+      </c>
+      <c r="D36" s="18">
+        <v>118446</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16" thickBot="1">
+      <c r="A37" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2123372</v>
+      </c>
+      <c r="D37" s="18">
+        <v>588708</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37">
+        <v>0.59</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16" thickBot="1">
+      <c r="A38" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="20">
+        <v>14237884</v>
+      </c>
+      <c r="D38" s="18">
+        <v>4269978</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0.2999</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16" thickBot="1">
+      <c r="A39" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2757828</v>
+      </c>
+      <c r="D39" s="18">
+        <v>524160</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="I39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16" thickBot="1">
+      <c r="A40" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="18">
+        <v>1143601</v>
+      </c>
+      <c r="D40" s="18">
+        <v>204555</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H40" s="26">
+        <v>0.1789</v>
+      </c>
+      <c r="I40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1">
+      <c r="A41" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="18">
+        <v>1211088</v>
+      </c>
+      <c r="D41" s="18">
+        <v>215583</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16" thickBot="1">
+      <c r="A42" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="13">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D30" s="6">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1">
-      <c r="A31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" thickBot="1">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="D32" s="6">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="C42" s="18">
+        <v>1125385</v>
+      </c>
+      <c r="D42" s="18">
+        <v>27202</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H42" s="26">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16" thickBot="1">
+      <c r="A43" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="18">
+        <v>7707363</v>
+      </c>
+      <c r="D43" s="18">
+        <v>1732973</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H43" s="26">
+        <v>0.2248</v>
+      </c>
+      <c r="I43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16" thickBot="1">
+      <c r="A44" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2103027</v>
+      </c>
+      <c r="D44" s="18">
+        <v>300016</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H44" s="26">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16" thickBot="1">
+      <c r="A45" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="20">
+        <v>2604657</v>
+      </c>
+      <c r="D45" s="18">
+        <v>91234</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H45" s="26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16" thickBot="1">
+      <c r="A46" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="13">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="D33" s="6">
-        <v>45</v>
-      </c>
-      <c r="E33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1">
-      <c r="A34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D34" s="6">
-        <v>41</v>
-      </c>
-      <c r="E34">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="D35" s="6">
-        <v>16</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" thickBot="1">
-      <c r="A36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="D36" s="6">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="D37" s="6">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" thickBot="1">
-      <c r="A38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="C46" s="18">
+        <v>798318</v>
+      </c>
+      <c r="D46" s="18">
+        <v>65568</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H46" s="26">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16" thickBot="1">
+      <c r="A47" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1130635</v>
+      </c>
+      <c r="D47" s="18">
+        <v>304378</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47">
+        <v>0.53</v>
+      </c>
+      <c r="H47" s="26">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16" thickBot="1">
+      <c r="A48" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="13">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="D38" s="6">
-        <v>46</v>
-      </c>
-      <c r="E38">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" thickBot="1">
-      <c r="A39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="D39" s="6">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" thickBot="1">
-      <c r="A40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.64</v>
-      </c>
-      <c r="D40" s="6">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16" thickBot="1">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="D41" s="6">
-        <v>33</v>
-      </c>
-      <c r="E41">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" thickBot="1">
-      <c r="A42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="13">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D42" s="6">
-        <v>42</v>
-      </c>
-      <c r="E42">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1">
-      <c r="A43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="13">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="D43" s="6">
-        <v>32</v>
-      </c>
-      <c r="E43">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" thickBot="1">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="C48" s="18">
+        <v>1452992</v>
+      </c>
+      <c r="D48" s="18">
+        <v>528761</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48">
+        <v>0.53</v>
+      </c>
+      <c r="H48" s="26">
+        <v>0.3639</v>
+      </c>
+      <c r="I48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16" thickBot="1">
+      <c r="A49" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C49" s="18">
+        <v>2508027</v>
+      </c>
+      <c r="D49" s="18">
+        <v>652230</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49">
         <v>0.52</v>
       </c>
-      <c r="D44" s="6">
-        <v>48</v>
-      </c>
-      <c r="E44">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" thickBot="1">
-      <c r="A45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="H49" s="26">
+        <v>0.2601</v>
+      </c>
+      <c r="I49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16" thickBot="1">
+      <c r="A50" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="13">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="D45" s="6">
-        <v>49</v>
-      </c>
-      <c r="E45">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" thickBot="1">
-      <c r="A46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="13">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D46" s="6">
-        <v>39</v>
-      </c>
-      <c r="E46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" thickBot="1">
-      <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="13">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D47" s="6">
-        <v>17</v>
-      </c>
-      <c r="E47">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1">
-      <c r="A48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="13">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="D48" s="6">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" thickBot="1">
-      <c r="A49" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="D49" s="6">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" thickBot="1">
-      <c r="A50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="18">
+        <v>8969226</v>
+      </c>
+      <c r="D50" s="18">
+        <v>807179</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50">
+        <v>0.52</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="I50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16" thickBot="1">
+      <c r="A51" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="13">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D50" s="6">
-        <v>50</v>
-      </c>
-      <c r="E50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1">
-      <c r="A51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="13">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="D51" s="6">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
-        <v>37</v>
+      <c r="C51" s="20">
+        <v>721231</v>
+      </c>
+      <c r="D51" s="18">
+        <v>300577</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51">
+        <v>0.51</v>
+      </c>
+      <c r="H51" s="26">
+        <v>0.4168</v>
+      </c>
+      <c r="I51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16" thickBot="1">
+      <c r="A52" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="13">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="D52" s="6">
-        <v>30</v>
-      </c>
-      <c r="E52">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" thickBot="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="C52" s="20">
+        <v>428937</v>
+      </c>
+      <c r="D52" s="18">
+        <v>138044</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G52">
+        <v>0.43</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="I52" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E52">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:I52">
+    <sortCondition descending="1" ref="G1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2906,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3076,1376 +3706,912 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="7"/>
-    <col min="8" max="8" width="11.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1">
-      <c r="A2" s="19" t="s">
-        <v>235</v>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="25">
-        <v>2123372</v>
-      </c>
-      <c r="D2" s="17">
-        <v>588708</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2">
-        <v>0.59</v>
-      </c>
-      <c r="H2" s="27">
-        <v>0.27729999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="19" t="s">
-        <v>181</v>
+      <c r="C2" s="10">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D2" s="4">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="20">
-        <v>318608</v>
-      </c>
-      <c r="D3" s="18">
-        <v>46933</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3">
-        <v>0.62</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0.14729999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1">
-      <c r="A4" s="16" t="s">
-        <v>140</v>
+      <c r="C3" s="13">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="20">
-        <v>2604657</v>
-      </c>
-      <c r="D4" s="18">
-        <v>91234</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H4" s="27">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1">
-      <c r="A5" s="21" t="s">
-        <v>229</v>
+      <c r="C4" s="13">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="20">
-        <v>1130635</v>
-      </c>
-      <c r="D5" s="18">
-        <v>304378</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5">
-        <v>0.53</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0.26919999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" thickBot="1">
-      <c r="A6" s="22" t="s">
-        <v>244</v>
+      <c r="C5" s="13">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="20">
-        <v>14237884</v>
-      </c>
-      <c r="D6" s="18">
-        <v>4269978</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0.2999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1">
-      <c r="A7" s="16" t="s">
-        <v>146</v>
+      <c r="C6" s="13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="20">
-        <v>2780247</v>
-      </c>
-      <c r="D7" s="18">
-        <v>136386</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7">
-        <v>0.72</v>
-      </c>
-      <c r="H7" s="27">
-        <v>4.9099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="A8" s="16" t="s">
-        <v>172</v>
+      <c r="C7" s="13">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="20">
-        <v>1644920</v>
-      </c>
-      <c r="D8" s="18">
-        <v>224357</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8">
-        <v>0.65</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.13639999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="A9" s="16" t="s">
-        <v>169</v>
+      <c r="C8" s="13">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="20">
-        <v>443814</v>
-      </c>
-      <c r="D9" s="18">
-        <v>50476</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9">
-        <v>0.65</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0.1137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="19" t="s">
-        <v>265</v>
+      <c r="C9" s="13">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="20">
-        <v>311268</v>
-      </c>
-      <c r="D10" s="18">
-        <v>270107</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10">
-        <v>0.61</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.86780000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="16" t="s">
-        <v>128</v>
+      <c r="C10" s="13">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="20">
-        <v>9501617</v>
-      </c>
-      <c r="D11" s="18">
-        <v>112911</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11">
-        <v>0.66</v>
-      </c>
-      <c r="H11" s="27">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickBot="1">
-      <c r="A12" s="16" t="s">
-        <v>149</v>
+      <c r="C11" s="13">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="20">
-        <v>4141445</v>
-      </c>
-      <c r="D12" s="18">
-        <v>211141</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="27">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13" s="16" t="s">
-        <v>250</v>
+      <c r="C12" s="13">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="20">
-        <v>428937</v>
-      </c>
-      <c r="D13" s="18">
-        <v>138044</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13">
+      <c r="C13" s="13">
         <v>0.43</v>
       </c>
-      <c r="H13" s="27">
-        <v>0.32179999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="A14" s="16" t="s">
-        <v>247</v>
+      <c r="D13" s="6">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="20">
-        <v>690433</v>
-      </c>
-      <c r="D14" s="18">
-        <v>219290</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14">
-        <v>0.61</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.31759999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" thickBot="1">
-      <c r="A15" s="16" t="s">
-        <v>190</v>
+      <c r="C14" s="13">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="20">
-        <v>5589767</v>
-      </c>
-      <c r="D15" s="18">
-        <v>944714</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15">
-        <v>0.63</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16" s="16" t="s">
-        <v>202</v>
+      <c r="C15" s="13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="18">
-        <v>2757828</v>
-      </c>
-      <c r="D16" s="18">
-        <v>524160</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0.19009999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1">
-      <c r="A17" s="16" t="s">
-        <v>163</v>
+      <c r="C16" s="13">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D16" s="6">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="18">
-        <v>1566031</v>
-      </c>
-      <c r="D17" s="18">
-        <v>147314</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17">
+      <c r="C17" s="13">
         <v>0.69</v>
       </c>
-      <c r="H17" s="27">
-        <v>9.4100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1">
-      <c r="A18" s="16" t="s">
-        <v>211</v>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="18">
-        <v>1194755</v>
-      </c>
-      <c r="D18" s="18">
-        <v>244013</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18">
-        <v>0.6</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0.20419999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1">
-      <c r="A19" s="16" t="s">
-        <v>241</v>
+      <c r="C18" s="13">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D18" s="6">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="18">
-        <v>1924149</v>
-      </c>
-      <c r="D19" s="18">
-        <v>574117</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19">
-        <v>0.6</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0.2984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1">
-      <c r="A20" s="16" t="s">
-        <v>205</v>
+      <c r="C19" s="13">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="18">
-        <v>2029032</v>
-      </c>
-      <c r="D20" s="18">
-        <v>398484</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20">
-        <v>0.61</v>
-      </c>
-      <c r="H20" s="27">
-        <v>0.19639999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
-      <c r="A21" s="16" t="s">
-        <v>137</v>
+      <c r="C20" s="13">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D20" s="6">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="18">
-        <v>747927</v>
-      </c>
-      <c r="D21" s="18">
-        <v>22142</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21">
-        <v>0.73</v>
-      </c>
-      <c r="H21" s="27">
-        <v>2.9600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1">
-      <c r="A22" s="16" t="s">
-        <v>226</v>
+      <c r="C21" s="13">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="18">
-        <v>2781446</v>
-      </c>
-      <c r="D22" s="18">
-        <v>734759</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22">
-        <v>0.67</v>
-      </c>
-      <c r="H22" s="27">
-        <v>0.26419999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" thickBot="1">
-      <c r="A23" s="16" t="s">
-        <v>232</v>
+      <c r="C22" s="13">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="18">
-        <v>3325046</v>
-      </c>
-      <c r="D23" s="18">
-        <v>904303</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23">
-        <v>0.68</v>
-      </c>
-      <c r="H23" s="27">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" thickBot="1">
-      <c r="A24" s="16" t="s">
-        <v>116</v>
+      <c r="C23" s="13">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="18">
-        <v>4824119</v>
-      </c>
-      <c r="D24" s="18">
-        <v>10704</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24">
-        <v>0.66</v>
-      </c>
-      <c r="H24" s="27">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1">
-      <c r="A25" s="16" t="s">
-        <v>131</v>
+      <c r="C24" s="13">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D24" s="6">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="18">
-        <v>2945233</v>
-      </c>
-      <c r="D25" s="18">
-        <v>44593</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25">
-        <v>0.75</v>
-      </c>
-      <c r="H25" s="27">
-        <v>1.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" thickBot="1">
-      <c r="A26" s="16" t="s">
-        <v>193</v>
+      <c r="C25" s="13">
+        <v>0.748</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="18">
-        <v>1211088</v>
-      </c>
-      <c r="D26" s="18">
-        <v>215583</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1">
-      <c r="A27" s="16" t="s">
-        <v>199</v>
+      <c r="C26" s="13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D26" s="6">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="18">
-        <v>2827673</v>
-      </c>
-      <c r="D27" s="18">
-        <v>523443</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27">
-        <v>0.62</v>
-      </c>
-      <c r="H27" s="27">
-        <v>0.18509999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="16" t="s">
-        <v>208</v>
+      <c r="C27" s="13">
+        <v>0.623</v>
+      </c>
+      <c r="D27" s="6">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="18">
-        <v>501822</v>
-      </c>
-      <c r="D28" s="18">
-        <v>101531</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28">
-        <v>0.64</v>
-      </c>
-      <c r="H28" s="27">
-        <v>0.20230000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" thickBot="1">
-      <c r="A29" s="16" t="s">
-        <v>217</v>
+      <c r="C28" s="13">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D28" s="6">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="18">
-        <v>844227</v>
-      </c>
-      <c r="D29" s="18">
-        <v>211467</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29">
-        <v>0.64</v>
-      </c>
-      <c r="H29" s="27">
-        <v>0.2505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" thickBot="1">
-      <c r="A30" s="16" t="s">
-        <v>134</v>
+      <c r="C29" s="13">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D29" s="6">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="18">
-        <v>1125385</v>
-      </c>
-      <c r="D30" s="18">
-        <v>27202</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H30" s="27">
-        <v>2.4199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" thickBot="1">
-      <c r="A31" s="16" t="s">
-        <v>119</v>
+      <c r="C30" s="13">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D30" s="6">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="18">
-        <v>744296</v>
-      </c>
-      <c r="D31" s="18">
-        <v>2736</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31">
-        <v>0.73</v>
-      </c>
-      <c r="H31" s="27">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" thickBot="1">
-      <c r="A32" s="16" t="s">
-        <v>175</v>
+      <c r="C31" s="13">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="18">
-        <v>3906723</v>
-      </c>
-      <c r="D32" s="18">
-        <v>546345</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32">
-        <v>0.66</v>
-      </c>
-      <c r="H32" s="27">
-        <v>0.13980000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" thickBot="1">
-      <c r="A33" s="16" t="s">
-        <v>158</v>
+      <c r="C32" s="13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D32" s="6">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="18">
-        <v>798318</v>
-      </c>
-      <c r="D33" s="18">
-        <v>65568</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H33" s="27">
-        <v>8.2100000000000006E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" thickBot="1">
-      <c r="A34" s="16" t="s">
-        <v>214</v>
+      <c r="C33" s="13">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="18">
-        <v>7707363</v>
-      </c>
-      <c r="D34" s="18">
-        <v>1732973</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H34" s="27">
-        <v>0.2248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" thickBot="1">
-      <c r="A35" s="16" t="s">
-        <v>143</v>
+      <c r="C34" s="13">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D34" s="6">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="18">
-        <v>4741564</v>
-      </c>
-      <c r="D35" s="18">
-        <v>173315</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35">
-        <v>0.65</v>
-      </c>
-      <c r="H35" s="27">
-        <v>3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" thickBot="1">
-      <c r="A36" s="16" t="s">
-        <v>253</v>
+      <c r="C35" s="13">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D35" s="6">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="18">
-        <v>344360</v>
-      </c>
-      <c r="D36" s="18">
-        <v>123036</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="G36">
-        <v>0.62</v>
-      </c>
-      <c r="H36" s="27">
-        <v>0.35730000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" thickBot="1">
-      <c r="A37" s="16" t="s">
-        <v>155</v>
+      <c r="C36" s="13">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D36" s="6">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="18">
-        <v>5536528</v>
-      </c>
-      <c r="D37" s="18">
-        <v>446841</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37">
-        <v>0.64</v>
-      </c>
-      <c r="H37" s="27">
-        <v>8.0699999999999994E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" thickBot="1">
-      <c r="A38" s="16" t="s">
-        <v>256</v>
+      <c r="C37" s="13">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D37" s="6">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickBot="1">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="18">
-        <v>1452992</v>
-      </c>
-      <c r="D38" s="18">
-        <v>528761</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="G38">
-        <v>0.53</v>
-      </c>
-      <c r="H38" s="27">
-        <v>0.3639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" thickBot="1">
-      <c r="A39" s="16" t="s">
-        <v>166</v>
+      <c r="C38" s="13">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D38" s="6">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="18">
-        <v>2001336</v>
-      </c>
-      <c r="D39" s="18">
-        <v>219703</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39">
-        <v>0.68</v>
-      </c>
-      <c r="H39" s="27">
-        <v>0.10979999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="16" t="s">
-        <v>122</v>
+      <c r="C39" s="13">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D39" s="6">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" thickBot="1">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="18">
-        <v>6166698</v>
-      </c>
-      <c r="D40" s="18">
-        <v>44292</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40">
+      <c r="C40" s="13">
         <v>0.64</v>
       </c>
-      <c r="H40" s="27">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" thickBot="1">
-      <c r="A41" s="16" t="s">
-        <v>184</v>
+      <c r="D40" s="6">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" thickBot="1">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="18">
-        <v>464144</v>
-      </c>
-      <c r="D41" s="18">
-        <v>71982</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41">
-        <v>0.6</v>
-      </c>
-      <c r="H41" s="27">
-        <v>0.15509999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" thickBot="1">
-      <c r="A42" s="16" t="s">
-        <v>178</v>
+      <c r="C41" s="13">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D41" s="6">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="18">
-        <v>2103027</v>
-      </c>
-      <c r="D42" s="18">
-        <v>300016</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H42" s="27">
-        <v>0.14269999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16" thickBot="1">
-      <c r="A43" s="16" t="s">
-        <v>238</v>
+      <c r="C42" s="13">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D42" s="6">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="18">
-        <v>370093</v>
-      </c>
-      <c r="D43" s="18">
-        <v>110263</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="G43">
-        <v>0.6</v>
-      </c>
-      <c r="H43" s="27">
-        <v>0.2979</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" thickBot="1">
-      <c r="A44" s="16" t="s">
-        <v>220</v>
+      <c r="C43" s="13">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D43" s="6">
+        <v>32</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="18">
-        <v>2508027</v>
-      </c>
-      <c r="D44" s="18">
-        <v>652230</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44">
+      <c r="C44" s="13">
         <v>0.52</v>
       </c>
-      <c r="H44" s="27">
-        <v>0.2601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16" thickBot="1">
-      <c r="A45" s="19" t="s">
-        <v>161</v>
+      <c r="D44" s="6">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="18">
-        <v>8969226</v>
-      </c>
-      <c r="D45" s="18">
-        <v>807179</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45">
-        <v>0.52</v>
-      </c>
-      <c r="H45" s="27">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" thickBot="1">
-      <c r="A46" s="16" t="s">
-        <v>196</v>
+      <c r="C45" s="13">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D45" s="6">
+        <v>49</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="18">
-        <v>1143601</v>
-      </c>
-      <c r="D46" s="18">
-        <v>204555</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H46" s="27">
-        <v>0.1789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" thickBot="1">
-      <c r="A47" s="16" t="s">
-        <v>223</v>
+      <c r="C46" s="13">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D46" s="6">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="18">
-        <v>315067</v>
-      </c>
-      <c r="D47" s="18">
-        <v>83204</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G47">
-        <v>0.65</v>
-      </c>
-      <c r="H47" s="27">
-        <v>0.2641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" thickBot="1">
-      <c r="A48" s="16" t="s">
-        <v>152</v>
+      <c r="C47" s="13">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D47" s="6">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" thickBot="1">
+      <c r="A48" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="18">
-        <v>3982752</v>
-      </c>
-      <c r="D48" s="18">
-        <v>212030</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48">
-        <v>0.67</v>
-      </c>
-      <c r="H48" s="27">
-        <v>5.3199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" thickBot="1">
-      <c r="A49" s="16" t="s">
-        <v>187</v>
+      <c r="C48" s="13">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D48" s="6">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="20">
-        <v>3316996</v>
-      </c>
-      <c r="D49" s="18">
-        <v>520971</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49">
-        <v>0.66</v>
-      </c>
-      <c r="H49" s="27">
-        <v>0.15709999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16" thickBot="1">
-      <c r="A50" s="16" t="s">
-        <v>259</v>
+      <c r="C49" s="13">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D49" s="6">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="20">
-        <v>721231</v>
-      </c>
-      <c r="D50" s="18">
-        <v>300577</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="G50">
-        <v>0.51</v>
-      </c>
-      <c r="H50" s="27">
-        <v>0.4168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" thickBot="1">
-      <c r="A51" s="23" t="s">
-        <v>125</v>
+      <c r="C50" s="13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D50" s="6">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="20">
-        <v>2976150</v>
-      </c>
-      <c r="D51" s="18">
-        <v>22748</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51">
-        <v>0.71</v>
-      </c>
-      <c r="H51" s="27">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16" thickBot="1">
-      <c r="A52" s="24" t="s">
-        <v>262</v>
+      <c r="C51" s="13">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="20">
-        <v>255849</v>
-      </c>
-      <c r="D52" s="18">
-        <v>118446</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52">
-        <v>0.6</v>
-      </c>
-      <c r="H52" s="27">
-        <v>0.46300000000000002</v>
-      </c>
+      <c r="C52" s="13">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D52" s="6">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" thickBot="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F53">
+  <sortState ref="A2:E52">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
